--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2968343.241765178</v>
+        <v>2966091.162053971</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F2" t="n">
-        <v>145.7197662098027</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>44.69901519809433</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>360.8042283883877</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>94.57983363107959</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>117.4014735002807</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>344.5219340476775</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>19.7853724873874</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294454</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722604</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,16 +1427,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560548</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.62253010341657</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893701</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763412</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>146.2834074964111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.94196613735054</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>125.2851635392055</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>125.2851635392055</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>199.1905227778686</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>131.4244133395507</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>55.30088041042189</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>271.1749250822257</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
-        <v>67.97896981790605</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943746</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>950.104597336996</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E2" t="n">
-        <v>564.3163447387517</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,7 +4325,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.2215399677106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>531.2215399677106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>785.9060281735974</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U4" t="n">
-        <v>785.9060281735974</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>531.2215399677106</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>531.2215399677106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>531.2215399677106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.2215399677106</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2313.82580263309</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>825.3518203322459</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>825.3518203322459</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>825.3518203322459</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.900772669911</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>811.0713238409782</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>589.3047084105042</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>589.3047084105042</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>589.3047084105042</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>589.3047084105042</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>361.3151575124869</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273895</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452622</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718139</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.61331560176</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738528</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>738.5604932615171</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>590.647399679124</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>443.7574521812136</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>276.5613528960935</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>134.8495217382916</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510507</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473547</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.054359575529</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780431999</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348531</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,31 +5531,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444888</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684175</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792907</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.560501433897</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1872.470231673184</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2296.093381168252</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>302.45403664168</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921487</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187003</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1731.250242493492</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.581113480496</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>615.6449305525891</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402534</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578603</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107357</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6528,37 +6528,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239595</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>924.834428639718</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684976</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.288144095049</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557706</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578603</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
         <v>175.9033664000583</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7263,16 +7263,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,22 +7412,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7734,10 +7734,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>40.64330621514899</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431578</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187115</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>105.8542358274169</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>40.23897475306339</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>15.00954930701843</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>86.99395161137554</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.00954930701846</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>93.31459260779047</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>15.00954930701846</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
-        <v>99.26785128072179</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.5948813009</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365058</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687959</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687978</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687977</v>
-      </c>
       <c r="L4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="M4" t="n">
-        <v>15436.64000687969</v>
-      </c>
       <c r="N4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083977</v>
+        <v>-832389.9260083972</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191951</v>
+        <v>496354.8197191949</v>
       </c>
       <c r="D6" t="n">
         <v>496354.819719195</v>
       </c>
       <c r="E6" t="n">
-        <v>244102.978098364</v>
+        <v>244068.2401729275</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.4399057187</v>
+        <v>569480.7019802837</v>
       </c>
       <c r="G6" t="n">
-        <v>569515.4399057186</v>
+        <v>569480.7019802835</v>
       </c>
       <c r="H6" t="n">
-        <v>569515.439905719</v>
+        <v>569480.7019802835</v>
       </c>
       <c r="I6" t="n">
-        <v>569515.439905719</v>
+        <v>569480.7019802834</v>
       </c>
       <c r="J6" t="n">
-        <v>351984.2375084414</v>
+        <v>351949.4995830056</v>
       </c>
       <c r="K6" t="n">
-        <v>569515.439905719</v>
+        <v>569480.7019802835</v>
       </c>
       <c r="L6" t="n">
-        <v>569515.439905719</v>
+        <v>569480.7019802834</v>
       </c>
       <c r="M6" t="n">
-        <v>484460.4119702074</v>
+        <v>484425.674044771</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802836</v>
       </c>
       <c r="O6" t="n">
-        <v>569515.4399057191</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802834</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F2" t="n">
-        <v>261.1562795319087</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>174.8499340780749</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.926872290081349</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>124.9691156450896</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>168.8103647053321</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.16110757300544</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>169.9836528440545</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908835</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,16 +28087,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28144,19 +28144,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-2.069320907103821e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.033794153969713e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.265883949388118e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>398.1179220955543</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>402.2342772868834</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>154.5219885631805</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>169.6252075171361</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>209.949944842253</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>171.5999003578901</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,13 +33047,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>150.2061940096336</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,31 +33503,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>186.6878763515716</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33983,7 +33983,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>403.8524967138027</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,22 +34208,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>691.6611968462892</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>259.5635423156801</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>263.6798975070092</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>20.54758114885028</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>23.94570355317219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39556506237879</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>29.4658664358718</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>18.8644819263003</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>44.09163190712712</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5107846304694</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>560.3194847629559</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
